--- a/Crawling/music/crawled_data/live_bugs/live_bugs_20220511_103008.xlsx
+++ b/Crawling/music/crawled_data/live_bugs/live_bugs_20220511_103008.xlsx
@@ -37,7 +37,7 @@
     <t>2022-05-11</t>
   </si>
   <si>
-    <t>bugs</t>
+    <t>Bugs</t>
   </si>
   <si>
     <t>초록을거머쥔우리는</t>
@@ -2811,7 +2811,6 @@
         <v>127</v>
       </c>
       <c r="F89">
-        <f/>
         <v>0</v>
       </c>
     </row>
